--- a/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2012-至今)/销售费用.xlsx
+++ b/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2012-至今)/销售费用.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ10"/>
+  <dimension ref="A1:AQ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1832,6 +1832,137 @@
         <v>17.71</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>202.69</v>
+      </c>
+      <c r="C11" t="n">
+        <v>47.35</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>76.18000000000001</v>
+      </c>
+      <c r="G11" t="n">
+        <v>270.43</v>
+      </c>
+      <c r="H11" t="n">
+        <v>13.16</v>
+      </c>
+      <c r="I11" t="n">
+        <v>578.15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5061.93</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="M11" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="O11" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="P11" t="n">
+        <v>64.73</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="S11" t="n">
+        <v>37</v>
+      </c>
+      <c r="T11" t="n">
+        <v>161.02</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1007.62</v>
+      </c>
+      <c r="V11" t="n">
+        <v>154.24</v>
+      </c>
+      <c r="W11" t="n">
+        <v>236.23</v>
+      </c>
+      <c r="X11" t="n">
+        <v>152.52</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>48.41</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>111.28</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>32.71</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>10.03</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>437.99</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>176.06</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>336.02</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>43.51</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>109.18</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>209.32</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>25.07</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>116.64</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>143.78</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>11.16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
